--- a/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.60259809123876</v>
+        <v>26.60259809123877</v>
       </c>
       <c r="C2">
-        <v>27.57101398106807</v>
+        <v>27.57101398106808</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.87472624042014</v>
+        <v>30.87472624042012</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>34.80750637580973</v>
+        <v>34.80750637580946</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.58441808522575</v>
+        <v>24.58441808522585</v>
       </c>
       <c r="C3">
-        <v>25.42059214424196</v>
+        <v>25.42059214424207</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.40485129253693</v>
+        <v>28.40485129253701</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>32.6687004519213</v>
+        <v>32.66870045192158</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>23.29987183377185</v>
       </c>
       <c r="C4">
-        <v>24.05707949478405</v>
+        <v>24.0570794947841</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.84832016415924</v>
+        <v>26.8483201641592</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31.35312580173417</v>
+        <v>31.35312580173423</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.76419247723127</v>
+        <v>22.76419247723132</v>
       </c>
       <c r="C5">
-        <v>23.489635012291</v>
+        <v>23.48963501229102</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.20255923828241</v>
+        <v>26.20255923828238</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>30.81591628158484</v>
+        <v>30.81591628158493</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.67448417582105</v>
+        <v>22.67448417582109</v>
       </c>
       <c r="C6">
-        <v>23.39467338857612</v>
+        <v>23.39467338857589</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.0946022852182</v>
+        <v>26.09460228521822</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>30.72663627183585</v>
+        <v>30.72663627183548</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.292697916794</v>
+        <v>23.29269791679395</v>
       </c>
       <c r="C7">
-        <v>24.04947567848392</v>
+        <v>24.04947567848387</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.83965929686768</v>
+        <v>26.83965929686759</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31.34588576355618</v>
+        <v>31.345885763556</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.91562067320308</v>
+        <v>25.91562067320304</v>
       </c>
       <c r="C8">
-        <v>26.83787905156754</v>
+        <v>26.83787905156758</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>30.03049739998844</v>
+        <v>30.03049739998837</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.07013744097044</v>
+        <v>34.0701374409707</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.74397905990774</v>
+        <v>30.74397905990792</v>
       </c>
       <c r="C9">
-        <v>32.0169663927044</v>
+        <v>32.01696639270434</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>36.0498202770598</v>
+        <v>36.04982027705974</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39.43373868211867</v>
+        <v>39.4337386821187</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.18134771049878</v>
+        <v>34.18134771049905</v>
       </c>
       <c r="C10">
-        <v>35.74427170637272</v>
+        <v>35.74427170637304</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>40.4772259488928</v>
+        <v>40.47722594889307</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>37.72874519847369</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43.58998198820652</v>
+        <v>43.58998198820719</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.74841611802476</v>
+        <v>35.74841611802452</v>
       </c>
       <c r="C11">
-        <v>37.45587346804436</v>
+        <v>37.45587346804407</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42.54405958971712</v>
+        <v>42.54405958971691</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45.66365553211708</v>
+        <v>45.66365553211629</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.34569796342706</v>
+        <v>36.34569796342694</v>
       </c>
       <c r="C12">
-        <v>38.11042519044067</v>
+        <v>38.11042519044042</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>43.34092994653437</v>
+        <v>43.34092994653412</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>46.45959581970834</v>
+        <v>46.45959581970779</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.21682202191531</v>
+        <v>36.21682202191548</v>
       </c>
       <c r="C13">
-        <v>37.96908743908177</v>
+        <v>37.96908743908173</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>43.16854130603356</v>
+        <v>43.1685413060337</v>
       </c>
       <c r="F13">
-        <v>39.56266403260141</v>
+        <v>39.5626640326014</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46.28760083464691</v>
+        <v>46.28760083464702</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.79745316650143</v>
+        <v>35.79745316650173</v>
       </c>
       <c r="C14">
-        <v>37.50956605279467</v>
+        <v>37.50956605279479</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>42.60928583147124</v>
+        <v>42.60928583147157</v>
       </c>
       <c r="F14">
-        <v>39.19167637503951</v>
+        <v>39.1916763750395</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45.72888872438117</v>
+        <v>45.72888872438183</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.54120415813792</v>
+        <v>35.54120415813806</v>
       </c>
       <c r="C15">
-        <v>37.22907951900932</v>
+        <v>37.22907951900925</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>42.2688195996328</v>
+        <v>42.26881959963279</v>
       </c>
       <c r="F15">
         <v>38.96319309154521</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>45.3882314662769</v>
+        <v>45.38823146627716</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.07926502450456</v>
+        <v>34.07926502450447</v>
       </c>
       <c r="C16">
-        <v>35.63305300094778</v>
+        <v>35.63305300094776</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>40.34372193849134</v>
+        <v>40.34372193849116</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43.45565019251703</v>
+        <v>43.45565019251674</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.18531586423013</v>
+        <v>33.18531586423016</v>
       </c>
       <c r="C17">
-        <v>34.6605121555297</v>
+        <v>34.66051215552966</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>39.1801880399381</v>
+        <v>39.18018803993806</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42.28853912105389</v>
+        <v>42.28853912105369</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.67120100511359</v>
+        <v>32.67120100511334</v>
       </c>
       <c r="C18">
-        <v>34.10232744737909</v>
+        <v>34.10232744737871</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>38.51541068266818</v>
+        <v>38.51541068266812</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239621</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41.68027244290212</v>
+        <v>41.6802724429016</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.49705738258638</v>
+        <v>32.49705738258619</v>
       </c>
       <c r="C19">
-        <v>33.91343969867847</v>
+        <v>33.91343969867854</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>38.29093280046094</v>
+        <v>38.2909328004609</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>41.47506978996853</v>
+        <v>41.47506978996824</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.28045141589595</v>
+        <v>33.28045141589588</v>
       </c>
       <c r="C20">
-        <v>34.76389222896668</v>
+        <v>34.76389222896666</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>39.30354730891995</v>
+        <v>39.30354730892</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42.40775049287998</v>
+        <v>42.40775049287983</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.92049334777705</v>
+        <v>35.92049334777683</v>
       </c>
       <c r="C21">
-        <v>37.64432385136878</v>
+        <v>37.64432385136842</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>42.77310028616807</v>
+        <v>42.77310028616788</v>
       </c>
       <c r="F21">
-        <v>39.30090300329777</v>
+        <v>39.30090300329779</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>45.89265709846806</v>
+        <v>45.89265709846782</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.67116035386731</v>
+        <v>37.6711603538673</v>
       </c>
       <c r="C22">
-        <v>39.56748708564017</v>
+        <v>39.56748708564009</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>45.12893795337808</v>
+        <v>45.12893795337828</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48.23649206785901</v>
+        <v>48.23649206785925</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.7329753357027</v>
+        <v>36.73297533570272</v>
       </c>
       <c r="C23">
-        <v>38.53550203294538</v>
+        <v>38.53550203294521</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>43.8604842800011</v>
+        <v>43.86048428000112</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.0141422503842</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>46.97728134718565</v>
+        <v>46.97728134718588</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.237441402149</v>
+        <v>33.23744140214903</v>
       </c>
       <c r="C24">
-        <v>34.71715144821415</v>
+        <v>34.71715144821425</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>39.24776410139709</v>
+        <v>39.24776410139702</v>
       </c>
       <c r="F24">
-        <v>36.85121910575587</v>
+        <v>36.85121910575577</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42.3514953788868</v>
+        <v>42.35149537888663</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.46432174970281</v>
+        <v>29.46432174970282</v>
       </c>
       <c r="C25">
-        <v>30.6382242292111</v>
+        <v>30.63822422921104</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.43396082906489</v>
+        <v>34.43396082906492</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.97326225332741</v>
+        <v>37.9732622533277</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.60259809123877</v>
+        <v>26.60259809123876</v>
       </c>
       <c r="C2">
-        <v>27.57101398106808</v>
+        <v>27.57101398106807</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.87472624042012</v>
+        <v>30.87472624042014</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>34.80750637580946</v>
+        <v>34.80750637580973</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.58441808522585</v>
+        <v>24.58441808522575</v>
       </c>
       <c r="C3">
-        <v>25.42059214424207</v>
+        <v>25.42059214424196</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.40485129253701</v>
+        <v>28.40485129253693</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>32.66870045192158</v>
+        <v>32.6687004519213</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>23.29987183377185</v>
       </c>
       <c r="C4">
-        <v>24.0570794947841</v>
+        <v>24.05707949478405</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.8483201641592</v>
+        <v>26.84832016415924</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31.35312580173423</v>
+        <v>31.35312580173417</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.76419247723132</v>
+        <v>22.76419247723127</v>
       </c>
       <c r="C5">
-        <v>23.48963501229102</v>
+        <v>23.489635012291</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.20255923828238</v>
+        <v>26.20255923828241</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>30.81591628158493</v>
+        <v>30.81591628158484</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.67448417582109</v>
+        <v>22.67448417582105</v>
       </c>
       <c r="C6">
-        <v>23.39467338857589</v>
+        <v>23.39467338857612</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.09460228521822</v>
+        <v>26.0946022852182</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>30.72663627183548</v>
+        <v>30.72663627183585</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.29269791679395</v>
+        <v>23.292697916794</v>
       </c>
       <c r="C7">
-        <v>24.04947567848387</v>
+        <v>24.04947567848392</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.83965929686759</v>
+        <v>26.83965929686768</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31.345885763556</v>
+        <v>31.34588576355618</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.91562067320304</v>
+        <v>25.91562067320308</v>
       </c>
       <c r="C8">
-        <v>26.83787905156758</v>
+        <v>26.83787905156754</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>30.03049739998837</v>
+        <v>30.03049739998844</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.0701374409707</v>
+        <v>34.07013744097044</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.74397905990792</v>
+        <v>30.74397905990774</v>
       </c>
       <c r="C9">
-        <v>32.01696639270434</v>
+        <v>32.0169663927044</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>36.04982027705974</v>
+        <v>36.0498202770598</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39.4337386821187</v>
+        <v>39.43373868211867</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.18134771049905</v>
+        <v>34.18134771049878</v>
       </c>
       <c r="C10">
-        <v>35.74427170637304</v>
+        <v>35.74427170637272</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>40.47722594889307</v>
+        <v>40.4772259488928</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847367</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43.58998198820719</v>
+        <v>43.58998198820652</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.74841611802452</v>
+        <v>35.74841611802476</v>
       </c>
       <c r="C11">
-        <v>37.45587346804407</v>
+        <v>37.45587346804436</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42.54405958971691</v>
+        <v>42.54405958971712</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45.66365553211629</v>
+        <v>45.66365553211708</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.34569796342694</v>
+        <v>36.34569796342706</v>
       </c>
       <c r="C12">
-        <v>38.11042519044042</v>
+        <v>38.11042519044067</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>43.34092994653412</v>
+        <v>43.34092994653437</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>46.45959581970779</v>
+        <v>46.45959581970834</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.21682202191548</v>
+        <v>36.21682202191531</v>
       </c>
       <c r="C13">
-        <v>37.96908743908173</v>
+        <v>37.96908743908177</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>43.1685413060337</v>
+        <v>43.16854130603356</v>
       </c>
       <c r="F13">
-        <v>39.5626640326014</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46.28760083464702</v>
+        <v>46.28760083464691</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.79745316650173</v>
+        <v>35.79745316650143</v>
       </c>
       <c r="C14">
-        <v>37.50956605279479</v>
+        <v>37.50956605279467</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>42.60928583147157</v>
+        <v>42.60928583147124</v>
       </c>
       <c r="F14">
-        <v>39.1916763750395</v>
+        <v>39.19167637503951</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45.72888872438183</v>
+        <v>45.72888872438117</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.54120415813806</v>
+        <v>35.54120415813792</v>
       </c>
       <c r="C15">
-        <v>37.22907951900925</v>
+        <v>37.22907951900932</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>42.26881959963279</v>
+        <v>42.2688195996328</v>
       </c>
       <c r="F15">
         <v>38.96319309154521</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>45.38823146627716</v>
+        <v>45.3882314662769</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.07926502450447</v>
+        <v>34.07926502450456</v>
       </c>
       <c r="C16">
-        <v>35.63305300094776</v>
+        <v>35.63305300094778</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>40.34372193849116</v>
+        <v>40.34372193849134</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43.45565019251674</v>
+        <v>43.45565019251703</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.18531586423016</v>
+        <v>33.18531586423013</v>
       </c>
       <c r="C17">
-        <v>34.66051215552966</v>
+        <v>34.6605121555297</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>39.18018803993806</v>
+        <v>39.1801880399381</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42.28853912105369</v>
+        <v>42.28853912105389</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.67120100511334</v>
+        <v>32.67120100511359</v>
       </c>
       <c r="C18">
-        <v>34.10232744737871</v>
+        <v>34.10232744737909</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>38.51541068266812</v>
+        <v>38.51541068266818</v>
       </c>
       <c r="F18">
-        <v>36.31710943239621</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41.6802724429016</v>
+        <v>41.68027244290212</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.49705738258619</v>
+        <v>32.49705738258638</v>
       </c>
       <c r="C19">
-        <v>33.91343969867854</v>
+        <v>33.91343969867847</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>38.2909328004609</v>
+        <v>38.29093280046094</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>41.47506978996824</v>
+        <v>41.47506978996853</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.28045141589588</v>
+        <v>33.28045141589595</v>
       </c>
       <c r="C20">
-        <v>34.76389222896666</v>
+        <v>34.76389222896668</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>39.30354730892</v>
+        <v>39.30354730891995</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42.40775049287983</v>
+        <v>42.40775049287998</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.92049334777683</v>
+        <v>35.92049334777705</v>
       </c>
       <c r="C21">
-        <v>37.64432385136842</v>
+        <v>37.64432385136878</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>42.77310028616788</v>
+        <v>42.77310028616807</v>
       </c>
       <c r="F21">
-        <v>39.30090300329779</v>
+        <v>39.30090300329777</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>45.89265709846782</v>
+        <v>45.89265709846806</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.6711603538673</v>
+        <v>37.67116035386731</v>
       </c>
       <c r="C22">
-        <v>39.56748708564009</v>
+        <v>39.56748708564017</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>45.12893795337828</v>
+        <v>45.12893795337808</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48.23649206785925</v>
+        <v>48.23649206785901</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.73297533570272</v>
+        <v>36.7329753357027</v>
       </c>
       <c r="C23">
-        <v>38.53550203294521</v>
+        <v>38.53550203294538</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>43.86048428000112</v>
+        <v>43.8604842800011</v>
       </c>
       <c r="F23">
-        <v>40.0141422503842</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>46.97728134718588</v>
+        <v>46.97728134718565</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.23744140214903</v>
+        <v>33.237441402149</v>
       </c>
       <c r="C24">
-        <v>34.71715144821425</v>
+        <v>34.71715144821415</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>39.24776410139702</v>
+        <v>39.24776410139709</v>
       </c>
       <c r="F24">
-        <v>36.85121910575577</v>
+        <v>36.85121910575587</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42.35149537888663</v>
+        <v>42.3514953788868</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.46432174970282</v>
+        <v>29.46432174970281</v>
       </c>
       <c r="C25">
-        <v>30.63822422921104</v>
+        <v>30.6382242292111</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.43396082906492</v>
+        <v>34.43396082906489</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.9732622533277</v>
+        <v>37.97326225332741</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.60259809123876</v>
+        <v>26.40003595771325</v>
       </c>
       <c r="C2">
-        <v>27.57101398106807</v>
+        <v>27.34052060269966</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.87472624042014</v>
+        <v>30.75647145617837</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.005796222202479</v>
       </c>
       <c r="H2">
-        <v>34.80750637580973</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>34.87209949381399</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.58441808522575</v>
+        <v>24.39335222056395</v>
       </c>
       <c r="C3">
-        <v>25.42059214424196</v>
+        <v>25.20634787212941</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.40485129253693</v>
+        <v>28.30010540262374</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.024600328248623</v>
       </c>
       <c r="H3">
-        <v>32.6687004519213</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>32.77282898374816</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.29987183377185</v>
+        <v>23.11584887162037</v>
       </c>
       <c r="C4">
-        <v>24.05707949478405</v>
+        <v>23.85297946193689</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.84832016415924</v>
+        <v>26.75147451064299</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.036127645386089</v>
       </c>
       <c r="H4">
-        <v>31.35312580173417</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>31.48302894606043</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.76419247723127</v>
+        <v>22.58305547435083</v>
       </c>
       <c r="C5">
-        <v>23.489635012291</v>
+        <v>23.28974031468775</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.20255923828241</v>
+        <v>26.10886733482152</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.040834630274822</v>
       </c>
       <c r="H5">
-        <v>30.81591628158484</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>30.9567293359336</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.67448417582105</v>
+        <v>22.49382786175618</v>
       </c>
       <c r="C6">
-        <v>23.39467338857612</v>
+        <v>23.195482100133</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.0946022852182</v>
+        <v>26.00143092371928</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.041617167228486</v>
       </c>
       <c r="H6">
-        <v>30.72663627183585</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30.8692861346562</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.292697916794</v>
+        <v>23.10871378751848</v>
       </c>
       <c r="C7">
-        <v>24.04947567848392</v>
+        <v>23.84543203439348</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.83965929686768</v>
+        <v>26.74285640333934</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.036191069862322</v>
       </c>
       <c r="H7">
-        <v>31.34588576355618</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>31.47593436492329</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.91562067320308</v>
+        <v>25.7170390045134</v>
       </c>
       <c r="C8">
-        <v>26.83787905156754</v>
+        <v>26.61297264814876</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>30.03049739998844</v>
+        <v>29.91700529339968</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.012293011291332</v>
       </c>
       <c r="H8">
-        <v>34.07013744097044</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.14807201125607</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.74397905990774</v>
+        <v>30.51545989865656</v>
       </c>
       <c r="C9">
-        <v>32.0169663927044</v>
+        <v>31.75083937411504</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>36.0498202770598</v>
+        <v>35.89833609502556</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.96448468550361</v>
       </c>
       <c r="H9">
-        <v>39.43373868211867</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>39.4194346559263</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.18134771049878</v>
+        <v>33.92758384811026</v>
       </c>
       <c r="C10">
-        <v>35.74427170637272</v>
+        <v>35.44445474961461</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>40.4772259488928</v>
+        <v>40.28994318648883</v>
       </c>
       <c r="F10">
         <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.927307896643898</v>
       </c>
       <c r="H10">
-        <v>43.58998198820652</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>43.42456697511955</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.74841611802476</v>
+        <v>35.4814920704112</v>
       </c>
       <c r="C11">
-        <v>37.45587346804436</v>
+        <v>37.13875770546531</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42.54405958971712</v>
+        <v>42.33682724177277</v>
       </c>
       <c r="F11">
         <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.909456415836051</v>
       </c>
       <c r="H11">
-        <v>45.66365553211708</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>45.47053010974771</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.34569796342706</v>
+        <v>36.07340750896019</v>
       </c>
       <c r="C12">
-        <v>38.11042519044067</v>
+        <v>37.78629674556564</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>43.34092994653437</v>
+        <v>43.12532101921204</v>
       </c>
       <c r="F12">
         <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.902499915400324</v>
       </c>
       <c r="H12">
-        <v>46.45959581970834</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>46.25553213284459</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.21682202191531</v>
+        <v>35.94570751190121</v>
       </c>
       <c r="C13">
-        <v>37.96908743908177</v>
+        <v>37.64649380811517</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>43.16854130603356</v>
+        <v>42.95477967332034</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.904008108828882</v>
       </c>
       <c r="H13">
-        <v>46.28760083464691</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>46.08591767355244</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.79745316650143</v>
+        <v>35.53009640088926</v>
       </c>
       <c r="C14">
-        <v>37.50956605279467</v>
+        <v>37.19188399598284</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>42.60928583147124</v>
+        <v>42.40138314650724</v>
       </c>
       <c r="F14">
         <v>39.19167637503951</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.908888478334143</v>
       </c>
       <c r="H14">
-        <v>45.72888872438117</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>45.53487406690194</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.54120415813792</v>
+        <v>35.27609368008357</v>
       </c>
       <c r="C15">
-        <v>37.22907951900932</v>
+        <v>36.91433879784134</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>42.2688195996328</v>
+        <v>42.06438688240523</v>
       </c>
       <c r="F15">
         <v>38.96319309154521</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.911850018964029</v>
       </c>
       <c r="H15">
-        <v>45.3882314662769</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>45.19884723335225</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.07926502450456</v>
+        <v>33.82631701493221</v>
       </c>
       <c r="C16">
-        <v>35.63305300094778</v>
+        <v>35.33431368382346</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>40.34372193849134</v>
+        <v>40.15764760087666</v>
       </c>
       <c r="F16">
         <v>37.63463543028811</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.928450886672456</v>
       </c>
       <c r="H16">
-        <v>43.45565019251703</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>43.2919987844818</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.18531586423013</v>
+        <v>32.93932034541188</v>
       </c>
       <c r="C17">
-        <v>34.6605121555297</v>
+        <v>34.37098365789328</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>39.1801880399381</v>
+        <v>39.00427436852227</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.938357341096137</v>
       </c>
       <c r="H17">
-        <v>42.28853912105389</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>42.22776414455248</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.67120100511359</v>
+        <v>32.42905809030295</v>
       </c>
       <c r="C18">
-        <v>34.10232744737909</v>
+        <v>33.81792543779895</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>38.51541068266818</v>
+        <v>38.34502037496587</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.94397153109374</v>
       </c>
       <c r="H18">
-        <v>41.68027244290212</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>41.62935344188431</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.49705738258638</v>
+        <v>32.25619697044693</v>
       </c>
       <c r="C19">
-        <v>33.91343969867847</v>
+        <v>33.63074804326993</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>38.29093280046094</v>
+        <v>38.12236405492159</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.945859538167557</v>
       </c>
       <c r="H19">
-        <v>41.47506978996853</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>41.42747789485254</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.28045141589595</v>
+        <v>33.03373172920191</v>
       </c>
       <c r="C20">
-        <v>34.76389222896668</v>
+        <v>34.47340196050543</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>39.30354730891995</v>
+        <v>39.12658684902997</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.937311822576968</v>
       </c>
       <c r="H20">
-        <v>42.40775049287998</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>42.33888992932282</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.92049334777705</v>
+        <v>35.65204477242831</v>
       </c>
       <c r="C21">
-        <v>37.64432385136878</v>
+        <v>37.32521361158719</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>42.77310028616807</v>
+        <v>42.56350224565332</v>
       </c>
       <c r="F21">
         <v>39.30090300329777</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.907460940640708</v>
       </c>
       <c r="H21">
-        <v>45.89265709846806</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>45.69640452053365</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.67116035386731</v>
+        <v>37.38614063941845</v>
       </c>
       <c r="C22">
-        <v>39.56748708564017</v>
+        <v>39.22680668569333</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>45.12893795337808</v>
+        <v>44.89292086943746</v>
       </c>
       <c r="F22">
         <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.886757095637781</v>
       </c>
       <c r="H22">
-        <v>48.23649206785901</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>48.00719861610452</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.7329753357027</v>
+        <v>36.45708841726061</v>
       </c>
       <c r="C23">
-        <v>38.53550203294538</v>
+        <v>38.20668584223839</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>43.8604842800011</v>
+        <v>43.6391852598054</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.897943840766037</v>
       </c>
       <c r="H23">
-        <v>46.97728134718565</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>46.76599173098262</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.237441402149</v>
+        <v>32.99104955234058</v>
       </c>
       <c r="C24">
-        <v>34.71715144821415</v>
+        <v>34.42709651068382</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>39.24776410139709</v>
+        <v>39.07127786607993</v>
       </c>
       <c r="F24">
         <v>36.85121910575587</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.937784750033378</v>
       </c>
       <c r="H24">
-        <v>42.3514953788868</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>42.2886358718213</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.46432174970281</v>
+        <v>29.24424117534462</v>
       </c>
       <c r="C25">
-        <v>30.6382242292111</v>
+        <v>30.38354902670323</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.43396082906489</v>
+        <v>34.29368733510512</v>
       </c>
       <c r="F25">
         <v>33.19272459127059</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.977648002232056</v>
       </c>
       <c r="H25">
-        <v>37.97326225332741</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>37.98317720313631</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
@@ -420,192 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>25.32355690596977</v>
+      </c>
+      <c r="C2">
+        <v>18.73929270685869</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>30.11464148781739</v>
+      </c>
       <c r="F2">
         <v>30.27884324296193</v>
+      </c>
+      <c r="G2">
+        <v>10.99857177177144</v>
+      </c>
+      <c r="H2">
+        <v>5.438341411878737</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>7.625360681982387</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>23.69676020250138</v>
+      </c>
+      <c r="C3">
+        <v>17.65310785464834</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>27.92924419232295</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>10.53551149321688</v>
+      </c>
+      <c r="H3">
+        <v>5.608655381858882</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.78608564946984</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>22.6407634815694</v>
+      </c>
+      <c r="C4">
+        <v>16.95258437407784</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>26.52351599565101</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>10.31526490862358</v>
+      </c>
+      <c r="H4">
+        <v>5.72192631407986</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.912803989244028</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>22.19604740287367</v>
+      </c>
+      <c r="C5">
+        <v>16.65878842170413</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>25.93427514354382</v>
+      </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
+      </c>
+      <c r="G5">
+        <v>10.24140795091971</v>
+      </c>
+      <c r="H5">
+        <v>5.77010765779229</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.970790243111571</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>22.12133336655419</v>
+      </c>
+      <c r="C6">
+        <v>16.60950523148855</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>25.83543263315181</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.1201820470107</v>
+      </c>
+      <c r="G6">
+        <v>10.23009160247991</v>
+      </c>
+      <c r="H6">
+        <v>5.778225919182113</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.980782565288591</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>22.63482415856684</v>
+      </c>
+      <c r="C7">
+        <v>16.94865566510879</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>26.51563609401095</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617556</v>
+      </c>
+      <c r="G7">
+        <v>10.31420500603246</v>
+      </c>
+      <c r="H7">
+        <v>5.722568115887574</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.913561205339194</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>24.77447715114518</v>
+      </c>
+      <c r="C8">
+        <v>18.37181230627558</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>29.37417010724976</v>
+      </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
+      </c>
+      <c r="G8">
+        <v>10.82557512837963</v>
+      </c>
+      <c r="H8">
+        <v>5.495153920420393</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>7.674525732256959</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>28.51894187788497</v>
+      </c>
+      <c r="C9">
+        <v>20.89240444941453</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>34.48897408264783</v>
+      </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
+      </c>
+      <c r="G9">
+        <v>12.56928175368939</v>
+      </c>
+      <c r="H9">
+        <v>5.126992364861528</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>7.461192569236598</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>30.99874427154118</v>
+      </c>
+      <c r="C10">
+        <v>22.57682925368012</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>37.97221948282113</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847217</v>
+      </c>
+      <c r="G10">
+        <v>14.22795166760213</v>
+      </c>
+      <c r="H10">
+        <v>4.918477816185626</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>7.665117944854538</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>32.06910115531784</v>
+      </c>
+      <c r="C11">
+        <v>23.30667239906378</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>39.50336259310831</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
+      </c>
+      <c r="G11">
+        <v>15.01691786850156</v>
+      </c>
+      <c r="H11">
+        <v>4.841025800654104</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>8.108820903557284</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>32.46622514340392</v>
+      </c>
+      <c r="C12">
+        <v>23.57782639219064</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>40.07606588449922</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>15.32027199626541</v>
+      </c>
+      <c r="H12">
+        <v>4.814585761227802</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>8.277888304693644</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>32.38106017699168</v>
+      </c>
+      <c r="C13">
+        <v>23.51966036155295</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>39.95303024219275</v>
+      </c>
       <c r="F13">
         <v>39.5626640325822</v>
+      </c>
+      <c r="G13">
+        <v>15.25473935769982</v>
+      </c>
+      <c r="H13">
+        <v>4.820144948701808</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>8.241430324682259</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>32.10193643014904</v>
+      </c>
+      <c r="C14">
+        <v>23.32908491176244</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>39.55061816010373</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
+      </c>
+      <c r="G14">
+        <v>15.04178457139495</v>
+      </c>
+      <c r="H14">
+        <v>4.838790278099079</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>8.122709314901821</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>31.92990085776102</v>
+      </c>
+      <c r="C15">
+        <v>23.21167262846875</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>39.30322168481454</v>
+      </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.96319309154516</v>
+      </c>
+      <c r="G15">
+        <v>14.91193304827878</v>
+      </c>
+      <c r="H15">
+        <v>4.850599619336359</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>8.050124912157793</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>30.9276410070064</v>
+      </c>
+      <c r="C16">
+        <v>22.52840041669097</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>37.8711284530449</v>
+      </c>
       <c r="F16">
-        <v>37.63463543028811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>37.6346354302881</v>
+      </c>
+      <c r="G16">
+        <v>14.17704957603365</v>
+      </c>
+      <c r="H16">
+        <v>4.923921702344034</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>7.636269175111948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>30.29807336065919</v>
+      </c>
+      <c r="C17">
+        <v>22.0999138662893</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>36.97929427256405</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.80228778268389</v>
+      </c>
+      <c r="G17">
+        <v>13.73473897991938</v>
+      </c>
+      <c r="H17">
+        <v>4.973620412253437</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>7.475802184710203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>29.9305231101537</v>
+      </c>
+      <c r="C18">
+        <v>21.85003063478647</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>36.46127043125038</v>
+      </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>13.48358721500761</v>
+      </c>
+      <c r="H18">
+        <v>5.003817757433113</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>7.46584694023079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>29.80513972749761</v>
+      </c>
+      <c r="C19">
+        <v>21.76483537691587</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>36.28499028614331</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.1517249415006</v>
+      </c>
+      <c r="G19">
+        <v>13.39912366459603</v>
+      </c>
+      <c r="H19">
+        <v>5.014307874237788</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>7.463298977631803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>30.36565418330033</v>
+      </c>
+      <c r="C20">
+        <v>22.14588184397478</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>37.07475175977697</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731401</v>
+      </c>
+      <c r="G20">
+        <v>13.78149003116484</v>
+      </c>
+      <c r="H20">
+        <v>4.96816041033507</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>7.478040391060585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>32.18414342153289</v>
+      </c>
+      <c r="C21">
+        <v>23.38520306112581</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>39.66900433715577</v>
+      </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>15.10421216093687</v>
+      </c>
+      <c r="H21">
+        <v>4.833231967983122</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>8.15755230116169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>33.32490994293082</v>
+      </c>
+      <c r="C22">
+        <v>24.16475313152768</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>41.32338821788112</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026788</v>
+      </c>
+      <c r="G22">
+        <v>15.99537447388463</v>
+      </c>
+      <c r="H22">
+        <v>4.762101019015889</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>8.651560835433674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>32.72039064606771</v>
+      </c>
+      <c r="C23">
+        <v>23.75146679684155</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>40.44396655790957</v>
+      </c>
       <c r="F23">
-        <v>40.0141422503843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038419</v>
+      </c>
+      <c r="G23">
+        <v>15.51738474166127</v>
+      </c>
+      <c r="H23">
+        <v>4.798365173363863</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>8.387342314430178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>30.33511835442446</v>
+      </c>
+      <c r="C24">
+        <v>22.1251107503136</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>37.03161196948413</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.8512191057543</v>
+      </c>
+      <c r="G24">
+        <v>13.7603440759899</v>
+      </c>
+      <c r="H24">
+        <v>4.97062384476438</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>7.477013275592951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>27.55393889302199</v>
+      </c>
+      <c r="C25">
+        <v>20.23982455182932</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>33.1554245001058</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
+      </c>
+      <c r="G25">
+        <v>11.99215606673763</v>
+      </c>
+      <c r="H25">
+        <v>5.216899824191163</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>7.486849750745171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32355690596977</v>
+        <v>14.78947622181619</v>
       </c>
       <c r="C2">
-        <v>18.73929270685869</v>
+        <v>11.91735769457311</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.11464148781739</v>
+        <v>16.64639026427051</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>10.99857177177144</v>
+        <v>13.44684530066363</v>
       </c>
       <c r="H2">
-        <v>5.438341411878737</v>
+        <v>10.46931263882562</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>7.625360681982387</v>
+        <v>13.8656360093813</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69676020250138</v>
+        <v>13.91390094346919</v>
       </c>
       <c r="C3">
-        <v>17.65310785464834</v>
+        <v>11.35696793297774</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.92924419232295</v>
+        <v>15.69293043590993</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>10.53551149321688</v>
+        <v>13.62221876042845</v>
       </c>
       <c r="H3">
-        <v>5.608655381858882</v>
+        <v>10.55183101261696</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.78608564946984</v>
+        <v>14.0152184301655</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.6407634815694</v>
+        <v>13.34598600319462</v>
       </c>
       <c r="C4">
-        <v>16.95258437407784</v>
+        <v>10.99756377274626</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.52351599565101</v>
+        <v>15.08172198445245</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>10.31526490862358</v>
+        <v>13.74444445141016</v>
       </c>
       <c r="H4">
-        <v>5.72192631407986</v>
+        <v>10.60545738609867</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.912803989244028</v>
+        <v>14.1133510405744</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.19604740287367</v>
+        <v>13.10703603479725</v>
       </c>
       <c r="C5">
-        <v>16.65878842170413</v>
+        <v>10.84739897228758</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.93427514354382</v>
+        <v>14.82643165056157</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>10.24140795091971</v>
+        <v>13.79782721113864</v>
       </c>
       <c r="H5">
-        <v>5.77010765779229</v>
+        <v>10.62805429764795</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.970790243111571</v>
+        <v>14.15491284371824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.12133336655419</v>
+        <v>13.06690785370488</v>
       </c>
       <c r="C6">
-        <v>16.60950523148855</v>
+        <v>10.82224528039201</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.83543263315181</v>
+        <v>14.78367412364066</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>10.23009160247991</v>
+        <v>13.80690486966837</v>
       </c>
       <c r="H6">
-        <v>5.778225919182113</v>
+        <v>10.63185140305509</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.980782565288591</v>
+        <v>14.16190882778707</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.63482415856684</v>
+        <v>13.34279373615794</v>
       </c>
       <c r="C7">
-        <v>16.94865566510879</v>
+        <v>10.99555338411016</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.51563609401095</v>
+        <v>15.07830383703977</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>10.31420500603246</v>
+        <v>13.74515002517509</v>
       </c>
       <c r="H7">
-        <v>5.722568115887574</v>
+        <v>10.60575912529567</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.913561205339194</v>
+        <v>14.11390520483222</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.77447715114518</v>
+        <v>14.4939214749363</v>
       </c>
       <c r="C8">
-        <v>18.37181230627558</v>
+        <v>11.72739721384023</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.37417010724976</v>
+        <v>16.32313114996975</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>10.82557512837963</v>
+        <v>13.50424528789133</v>
       </c>
       <c r="H8">
-        <v>5.495153920420393</v>
+        <v>10.49715034438591</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>7.674525732256959</v>
+        <v>13.9159011693209</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.51894187788497</v>
+        <v>16.50750969901804</v>
       </c>
       <c r="C9">
-        <v>20.89240444941453</v>
+        <v>13.03558586613095</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.48897408264783</v>
+        <v>18.68393690344874</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>12.56928175368939</v>
+        <v>13.15093055539266</v>
       </c>
       <c r="H9">
-        <v>5.126992364861528</v>
+        <v>10.30767810987004</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.461192569236598</v>
+        <v>13.5779442121903</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.99874427154118</v>
+        <v>17.83516559957563</v>
       </c>
       <c r="C10">
-        <v>22.57682925368012</v>
+        <v>13.91348294539697</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.97221948282113</v>
+        <v>20.34426609302905</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>14.22795166760213</v>
+        <v>12.96891464568268</v>
       </c>
       <c r="H10">
-        <v>4.918477816185626</v>
+        <v>10.18284132089146</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.665117944854538</v>
+        <v>13.3609483576492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.06910115531784</v>
+        <v>18.40582767721765</v>
       </c>
       <c r="C11">
-        <v>23.30667239906378</v>
+        <v>14.29388445441589</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.50336259310831</v>
+        <v>21.0569017443305</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>15.01691786850156</v>
+        <v>12.90397486938251</v>
       </c>
       <c r="H11">
-        <v>4.841025800654104</v>
+        <v>10.1291796216444</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8.108820903557284</v>
+        <v>13.26917121561851</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.46622514340392</v>
+        <v>18.61711567661016</v>
       </c>
       <c r="C12">
-        <v>23.57782639219064</v>
+        <v>14.43514826719364</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.07606588449922</v>
+        <v>21.32066146033916</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>15.32027199626541</v>
+        <v>12.88203176778028</v>
       </c>
       <c r="H12">
-        <v>4.814585761227802</v>
+        <v>10.10931013226337</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.277888304693644</v>
+        <v>13.23542766316013</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.38106017699168</v>
+        <v>18.57182518074609</v>
       </c>
       <c r="C13">
-        <v>23.51966036155295</v>
+        <v>14.40484932087427</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.95303024219275</v>
+        <v>21.26412684363698</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>15.25473935769982</v>
+        <v>12.88663860233442</v>
       </c>
       <c r="H13">
-        <v>4.820144948701808</v>
+        <v>10.11356929988293</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.241430324682259</v>
+        <v>13.24264978487028</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.10193643014904</v>
+        <v>18.423306949444</v>
       </c>
       <c r="C14">
-        <v>23.32908491176244</v>
+        <v>14.30556245204506</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.55061816010373</v>
+        <v>21.07872347282035</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>15.04178457139495</v>
+        <v>12.90211608121778</v>
       </c>
       <c r="H14">
-        <v>4.838790278099079</v>
+        <v>10.12753589933</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>8.122709314901821</v>
+        <v>13.26637478474552</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.92990085776102</v>
+        <v>18.33170842422511</v>
       </c>
       <c r="C15">
-        <v>23.21167262846875</v>
+        <v>14.24438197460351</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.30322168481454</v>
+        <v>20.96436516790626</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>14.91193304827878</v>
+        <v>12.91194365462062</v>
       </c>
       <c r="H15">
-        <v>4.850599619336359</v>
+        <v>10.13614962431112</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.050124912157793</v>
+        <v>13.28103902409469</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.9276410070064</v>
+        <v>17.79719947652686</v>
       </c>
       <c r="C16">
-        <v>22.52840041669097</v>
+        <v>13.88823595361151</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.8711284530449</v>
+        <v>20.29683823289148</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>14.17704957603365</v>
+        <v>12.97352493000919</v>
       </c>
       <c r="H16">
-        <v>4.923921702344034</v>
+        <v>10.18641127852554</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.636269175111948</v>
+        <v>13.3670868793454</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.29807336065919</v>
+        <v>17.4607498456746</v>
       </c>
       <c r="C17">
-        <v>22.0999138662893</v>
+        <v>13.66485005086138</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.97929427256405</v>
+        <v>19.87643101304201</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>13.73473897991938</v>
+        <v>13.01593559253669</v>
       </c>
       <c r="H17">
-        <v>4.973620412253437</v>
+        <v>10.21804704377929</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.475802184710203</v>
+        <v>13.42165995264804</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.9305231101537</v>
+        <v>17.26409970908581</v>
       </c>
       <c r="C18">
-        <v>21.85003063478647</v>
+        <v>13.53458274101079</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.46127043125038</v>
+        <v>19.63060685712216</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>13.48358721500761</v>
+        <v>13.0420056115821</v>
       </c>
       <c r="H18">
-        <v>5.003817757433113</v>
+        <v>10.23653735672922</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.46584694023079</v>
+        <v>13.45370090799639</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.80513972749761</v>
+        <v>17.19698001282305</v>
       </c>
       <c r="C19">
-        <v>21.76483537691587</v>
+        <v>13.49017247682757</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.28499028614331</v>
+        <v>19.54668405087126</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>13.39912366459603</v>
+        <v>13.0511179163445</v>
       </c>
       <c r="H19">
-        <v>5.014307874237788</v>
+        <v>10.24284835888306</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.463298977631803</v>
+        <v>13.46466100904018</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.36565418330033</v>
+        <v>17.49688994011531</v>
       </c>
       <c r="C20">
-        <v>22.14588184397478</v>
+        <v>13.6888147239608</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.07475175977697</v>
+        <v>19.92159958113326</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>13.78149003116484</v>
+        <v>13.01124679869129</v>
       </c>
       <c r="H20">
-        <v>4.96816041033507</v>
+        <v>10.21464889858692</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.478040391060585</v>
+        <v>13.41578298605924</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.18414342153289</v>
+        <v>18.46706101028684</v>
       </c>
       <c r="C21">
-        <v>23.38520306112581</v>
+        <v>14.33480144505942</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.66900433715577</v>
+        <v>21.13334621781294</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>15.10421216093687</v>
+        <v>12.89749748399104</v>
       </c>
       <c r="H21">
-        <v>4.833231967983122</v>
+        <v>10.12342131834522</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.15755230116169</v>
+        <v>13.25937864590616</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.32490994293082</v>
+        <v>19.07308669108375</v>
       </c>
       <c r="C22">
-        <v>24.16475313152768</v>
+        <v>14.74073195987815</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.32338821788112</v>
+        <v>21.88975319768856</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>15.99537447388463</v>
+        <v>12.83862519052012</v>
       </c>
       <c r="H22">
-        <v>4.762101019015889</v>
+        <v>10.06642848556156</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.651560835433674</v>
+        <v>13.16305560810239</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.72039064606771</v>
+        <v>18.75220989935573</v>
       </c>
       <c r="C23">
-        <v>23.75146679684155</v>
+        <v>14.52558390527435</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.44396655790957</v>
+        <v>21.48928524794271</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>15.51738474166127</v>
+        <v>12.86860574118253</v>
       </c>
       <c r="H23">
-        <v>4.798365173363863</v>
+        <v>10.0966055435417</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.387342314430178</v>
+        <v>13.21392102462953</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.33511835442446</v>
+        <v>17.4805610336914</v>
       </c>
       <c r="C24">
-        <v>22.1251107503136</v>
+        <v>13.67798602119129</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.03161196948413</v>
+        <v>19.90119172772721</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>13.7603440759899</v>
+        <v>13.01336135177874</v>
       </c>
       <c r="H24">
-        <v>4.97062384476438</v>
+        <v>10.21618425782632</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.477013275592951</v>
+        <v>13.41843788845844</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.55393889302199</v>
+        <v>15.98925896547247</v>
       </c>
       <c r="C25">
-        <v>20.23982455182932</v>
+        <v>12.69594731825377</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.1554245001058</v>
+        <v>18.03445279330115</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>11.99215606673763</v>
+        <v>13.23324388238343</v>
       </c>
       <c r="H25">
-        <v>5.216899824191163</v>
+        <v>10.35641513569769</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.486849750745171</v>
+        <v>13.66392040037251</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.78947622181619</v>
+        <v>25.32355690596975</v>
       </c>
       <c r="C2">
-        <v>11.91735769457311</v>
+        <v>18.73929270685873</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.64639026427051</v>
+        <v>30.11464148781739</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>13.44684530066363</v>
+        <v>10.99857177177152</v>
       </c>
       <c r="H2">
-        <v>10.46931263882562</v>
+        <v>5.438341411878741</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.8656360093813</v>
+        <v>7.625360681982361</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.91390094346919</v>
+        <v>23.69676020250145</v>
       </c>
       <c r="C3">
-        <v>11.35696793297774</v>
+        <v>17.65310785464833</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.69293043590993</v>
+        <v>27.92924419232299</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>13.62221876042845</v>
+        <v>10.53551149321676</v>
       </c>
       <c r="H3">
-        <v>10.55183101261696</v>
+        <v>5.608655381858818</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.0152184301655</v>
+        <v>7.786085649469713</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.34598600319462</v>
+        <v>22.64076348156945</v>
       </c>
       <c r="C4">
-        <v>10.99756377274626</v>
+        <v>16.95258437407793</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.08172198445245</v>
+        <v>26.52351599565099</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>13.74444445141016</v>
+        <v>10.31526490862352</v>
       </c>
       <c r="H4">
-        <v>10.60545738609867</v>
+        <v>5.72192631407973</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.1133510405744</v>
+        <v>7.912803989243946</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.10703603479725</v>
+        <v>22.19604740287363</v>
       </c>
       <c r="C5">
-        <v>10.84739897228758</v>
+        <v>16.65878842170409</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.82643165056157</v>
+        <v>25.93427514354379</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>13.79782721113864</v>
+        <v>10.24140795091978</v>
       </c>
       <c r="H5">
-        <v>10.62805429764795</v>
+        <v>5.770107657792412</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.15491284371824</v>
+        <v>7.970790243111686</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.06690785370488</v>
+        <v>22.12133336655416</v>
       </c>
       <c r="C6">
-        <v>10.82224528039201</v>
+        <v>16.60950523148867</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.78367412364066</v>
+        <v>25.83543263315176</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>13.80690486966837</v>
+        <v>10.23009160247981</v>
       </c>
       <c r="H6">
-        <v>10.63185140305509</v>
+        <v>5.778225919182103</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.16190882778707</v>
+        <v>7.980782565288546</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.34279373615794</v>
+        <v>22.63482415856689</v>
       </c>
       <c r="C7">
-        <v>10.99555338411016</v>
+        <v>16.9486556651087</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.07830383703977</v>
+        <v>26.51563609401093</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>13.74515002517509</v>
+        <v>10.31420500603253</v>
       </c>
       <c r="H7">
-        <v>10.60575912529567</v>
+        <v>5.722568115887584</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.11390520483222</v>
+        <v>7.913561205339241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.4939214749363</v>
+        <v>24.77447715114515</v>
       </c>
       <c r="C8">
-        <v>11.72739721384023</v>
+        <v>18.37181230627569</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.32313114996975</v>
+        <v>29.37417010724968</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>13.50424528789133</v>
+        <v>10.82557512837966</v>
       </c>
       <c r="H8">
-        <v>10.49715034438591</v>
+        <v>5.495153920420401</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.9159011693209</v>
+        <v>7.674525732257018</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.50750969901804</v>
+        <v>28.51894187788499</v>
       </c>
       <c r="C9">
-        <v>13.03558586613095</v>
+        <v>20.89240444941442</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.68393690344874</v>
+        <v>34.48897408264784</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>13.15093055539266</v>
+        <v>12.56928175368931</v>
       </c>
       <c r="H9">
-        <v>10.30767810987004</v>
+        <v>5.126992364861518</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.5779442121903</v>
+        <v>7.461192569236561</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.83516559957563</v>
+        <v>30.99874427154124</v>
       </c>
       <c r="C10">
-        <v>13.91348294539697</v>
+        <v>22.57682925368016</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.34426609302905</v>
+        <v>37.97221948282121</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>12.96891464568268</v>
+        <v>14.22795166760217</v>
       </c>
       <c r="H10">
-        <v>10.18284132089146</v>
+        <v>4.91847781618562</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.3609483576492</v>
+        <v>7.66511794485454</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.40582767721765</v>
+        <v>32.06910115531782</v>
       </c>
       <c r="C11">
-        <v>14.29388445441589</v>
+        <v>23.30667239906378</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.0569017443305</v>
+        <v>39.5033625931082</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>12.90397486938251</v>
+        <v>15.01691786850135</v>
       </c>
       <c r="H11">
-        <v>10.1291796216444</v>
+        <v>4.841025800654126</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.26917121561851</v>
+        <v>8.108820903557172</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.61711567661016</v>
+        <v>32.46622514340388</v>
       </c>
       <c r="C12">
-        <v>14.43514826719364</v>
+        <v>23.5778263921907</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.32066146033916</v>
+        <v>40.07606588449924</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>12.88203176778028</v>
+        <v>15.32027199626545</v>
       </c>
       <c r="H12">
-        <v>10.10931013226337</v>
+        <v>4.814585761227789</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.23542766316013</v>
+        <v>8.277888304693654</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.57182518074609</v>
+        <v>32.38106017699169</v>
       </c>
       <c r="C13">
-        <v>14.40484932087427</v>
+        <v>23.51966036155284</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.26412684363698</v>
+        <v>39.95303024219275</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>12.88663860233442</v>
+        <v>15.25473935769968</v>
       </c>
       <c r="H13">
-        <v>10.11356929988293</v>
+        <v>4.820144948701808</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.24264978487028</v>
+        <v>8.24143032468224</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.423306949444</v>
+        <v>32.10193643014898</v>
       </c>
       <c r="C14">
-        <v>14.30556245204506</v>
+        <v>23.32908491176241</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.07872347282035</v>
+        <v>39.55061816010367</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>12.90211608121778</v>
+        <v>15.04178457139475</v>
       </c>
       <c r="H14">
-        <v>10.12753589933</v>
+        <v>4.838790278099171</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.26637478474552</v>
+        <v>8.122709314901714</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.33170842422511</v>
+        <v>31.92990085776108</v>
       </c>
       <c r="C15">
-        <v>14.24438197460351</v>
+        <v>23.21167262846863</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.96436516790626</v>
+        <v>39.30322168481457</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>12.91194365462062</v>
+        <v>14.91193304827879</v>
       </c>
       <c r="H15">
-        <v>10.13614962431112</v>
+        <v>4.850599619336272</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.28103902409469</v>
+        <v>8.050124912157857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.79719947652686</v>
+        <v>30.92764100700639</v>
       </c>
       <c r="C16">
-        <v>13.88823595361151</v>
+        <v>22.52840041669083</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.29683823289148</v>
+        <v>37.87112845304499</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>12.97352493000919</v>
+        <v>14.1770495760337</v>
       </c>
       <c r="H16">
-        <v>10.18641127852554</v>
+        <v>4.923921702344044</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.3670868793454</v>
+        <v>7.636269175111958</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.4607498456746</v>
+        <v>30.29807336065921</v>
       </c>
       <c r="C17">
-        <v>13.66485005086138</v>
+        <v>22.09991386628917</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.87643101304201</v>
+        <v>36.97929427256398</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>13.01593559253669</v>
+        <v>13.73473897991938</v>
       </c>
       <c r="H17">
-        <v>10.21804704377929</v>
+        <v>4.973620412253476</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.42165995264804</v>
+        <v>7.475802184710237</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.26409970908581</v>
+        <v>29.93052311015368</v>
       </c>
       <c r="C18">
-        <v>13.53458274101079</v>
+        <v>21.85003063478636</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.63060685712216</v>
+        <v>36.46127043125031</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>13.0420056115821</v>
+        <v>13.48358721500742</v>
       </c>
       <c r="H18">
-        <v>10.23653735672922</v>
+        <v>5.003817757433262</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.45370090799639</v>
+        <v>7.465846940230887</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.19698001282305</v>
+        <v>29.80513972749757</v>
       </c>
       <c r="C19">
-        <v>13.49017247682757</v>
+        <v>21.76483537691591</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.54668405087126</v>
+        <v>36.28499028614325</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>13.0511179163445</v>
+        <v>13.39912366459599</v>
       </c>
       <c r="H19">
-        <v>10.24284835888306</v>
+        <v>5.01430787423785</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.46466100904018</v>
+        <v>7.463298977631891</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.49688994011531</v>
+        <v>30.36565418330036</v>
       </c>
       <c r="C20">
-        <v>13.6888147239608</v>
+        <v>22.14588184397484</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.92159958113326</v>
+        <v>37.07475175977699</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>13.01124679869129</v>
+        <v>13.78149003116474</v>
       </c>
       <c r="H20">
-        <v>10.21464889858692</v>
+        <v>4.96816041033501</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.41578298605924</v>
+        <v>7.478040391060496</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.46706101028684</v>
+        <v>32.18414342153279</v>
       </c>
       <c r="C21">
-        <v>14.33480144505942</v>
+        <v>23.38520306112571</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.13334621781294</v>
+        <v>39.66900433715566</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>12.89749748399104</v>
+        <v>15.10421216093668</v>
       </c>
       <c r="H21">
-        <v>10.12342131834522</v>
+        <v>4.833231967983167</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.25937864590616</v>
+        <v>8.1575523011616</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.07308669108375</v>
+        <v>33.3249099429309</v>
       </c>
       <c r="C22">
-        <v>14.74073195987815</v>
+        <v>24.1647531315276</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.88975319768856</v>
+        <v>41.32338821788114</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>12.83862519052012</v>
+        <v>15.99537447388454</v>
       </c>
       <c r="H22">
-        <v>10.06642848556156</v>
+        <v>4.76210101901587</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.16305560810239</v>
+        <v>8.65156083543366</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.75220989935573</v>
+        <v>32.72039064606768</v>
       </c>
       <c r="C23">
-        <v>14.52558390527435</v>
+        <v>23.75146679684153</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.48928524794271</v>
+        <v>40.44396655790947</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>12.86860574118253</v>
+        <v>15.51738474166113</v>
       </c>
       <c r="H23">
-        <v>10.0966055435417</v>
+        <v>4.798365173363869</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.21392102462953</v>
+        <v>8.387342314430104</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.4805610336914</v>
+        <v>30.33511835442444</v>
       </c>
       <c r="C24">
-        <v>13.67798602119129</v>
+        <v>22.1251107503136</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.90119172772721</v>
+        <v>37.03161196948416</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>13.01336135177874</v>
+        <v>13.76034407598997</v>
       </c>
       <c r="H24">
-        <v>10.21618425782632</v>
+        <v>4.970623844764289</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.41843788845844</v>
+        <v>7.477013275592942</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.98925896547247</v>
+        <v>27.55393889302199</v>
       </c>
       <c r="C25">
-        <v>12.69594731825377</v>
+        <v>20.23982455182938</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.03445279330115</v>
+        <v>33.15542450010582</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>13.23324388238343</v>
+        <v>11.99215606673762</v>
       </c>
       <c r="H25">
-        <v>10.35641513569769</v>
+        <v>5.216899824191049</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.66392040037251</v>
+        <v>7.48684975074509</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32355690596975</v>
+        <v>13.26409174394128</v>
       </c>
       <c r="C2">
-        <v>18.73929270685873</v>
+        <v>9.135315883727943</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.11464148781739</v>
+        <v>27.96525863607839</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>10.99857177177152</v>
+        <v>30.04135805413719</v>
       </c>
       <c r="H2">
-        <v>5.438341411878741</v>
+        <v>2.254236988512497</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.05518334151926</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.77079711866312</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.44595107036059</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.35022056573161</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>7.625360681982361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69676020250145</v>
+        <v>12.41887638347486</v>
       </c>
       <c r="C3">
-        <v>17.65310785464833</v>
+        <v>8.560003844792023</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.92924419232299</v>
+        <v>26.08802806395004</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>10.53551149321676</v>
+        <v>29.42788875093269</v>
       </c>
       <c r="H3">
-        <v>5.608655381858818</v>
+        <v>2.009211704800222</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.23342056825589</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.75066359220275</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.45743411496541</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.62191166190678</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.786085649469713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.64076348156945</v>
+        <v>11.86874010986001</v>
       </c>
       <c r="C4">
-        <v>16.95258437407793</v>
+        <v>8.191560338779169</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.52351599565099</v>
+        <v>24.86866784967915</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>10.31526490862352</v>
+        <v>29.04979544857375</v>
       </c>
       <c r="H4">
-        <v>5.72192631407973</v>
+        <v>1.853696831735721</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.346978871999894</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.73989241963607</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.46591205019126</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.15141352502945</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.912803989243946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.19604740287363</v>
+        <v>11.63465164667264</v>
       </c>
       <c r="C5">
-        <v>16.65878842170409</v>
+        <v>8.046029912444819</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.93427514354379</v>
+        <v>24.35465733283083</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>10.24140795091978</v>
+        <v>28.85852043071302</v>
       </c>
       <c r="H5">
-        <v>5.770107657792412</v>
+        <v>1.788814976911959</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.397131062081613</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.72927735890649</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.45632944179415</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.95530715181173</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.970790243111686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.12133336655416</v>
+        <v>11.59278800819018</v>
       </c>
       <c r="C6">
-        <v>16.60950523148867</v>
+        <v>8.031946130428636</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.83543263315176</v>
+        <v>24.26798988248061</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>10.23009160247981</v>
+        <v>28.78163804824988</v>
       </c>
       <c r="H6">
-        <v>5.778225919182103</v>
+        <v>1.777706690751215</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.409142596334774</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.71947366588135</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.43845552529976</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.92415606277271</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.980782565288546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.63482415856689</v>
+        <v>11.85889221344096</v>
       </c>
       <c r="C7">
-        <v>16.9486556651087</v>
+        <v>8.21713152858343</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.51563609401093</v>
+        <v>24.86100974332241</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>10.31420500603253</v>
+        <v>28.92486272956188</v>
       </c>
       <c r="H7">
-        <v>5.722568115887584</v>
+        <v>1.852139765168394</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.357252707367886</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.71778082813741</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.42130199118042</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.15351096975328</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.913561205339241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.77447715114515</v>
+        <v>12.97089668117062</v>
       </c>
       <c r="C8">
-        <v>18.37181230627569</v>
+        <v>8.973825312118688</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.37417010724968</v>
+        <v>27.33078069231085</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>10.82557512837966</v>
+        <v>29.67261256832166</v>
       </c>
       <c r="H8">
-        <v>5.495153920420401</v>
+        <v>2.169926861984737</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.12813469389115</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.73475248098621</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.39112246981328</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.10980842310354</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>7.674525732257018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.51894187788499</v>
+        <v>14.91555607483106</v>
       </c>
       <c r="C9">
-        <v>20.89240444941442</v>
+        <v>10.29319953359829</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.48897408264784</v>
+        <v>31.65008026793691</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>12.56928175368931</v>
+        <v>31.33635406751222</v>
       </c>
       <c r="H9">
-        <v>5.126992364861518</v>
+        <v>2.755174358072537</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.695030302280059</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.82060401530423</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.4240760949347</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.79112900605671</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.461192569236561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.99874427154124</v>
+        <v>16.19905253350583</v>
       </c>
       <c r="C10">
-        <v>22.57682925368016</v>
+        <v>11.1427521764877</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.97221948282121</v>
+        <v>33.62879111167724</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>14.22795166760217</v>
+        <v>31.93365384886643</v>
       </c>
       <c r="H10">
-        <v>4.91847781618562</v>
+        <v>3.127066947865678</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.556895060868066</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.77867793286803</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.25454510227604</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.89762430940533</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.66511794485454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.06910115531782</v>
+        <v>16.8018777779835</v>
       </c>
       <c r="C11">
-        <v>23.30667239906378</v>
+        <v>11.05825489652965</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.5033625931082</v>
+        <v>26.96855960385349</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>15.01691786850135</v>
+        <v>27.29652235099279</v>
       </c>
       <c r="H11">
-        <v>4.841025800654126</v>
+        <v>3.626876394394902</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.614399393662402</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.860133293045084</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.62299593956692</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.24763371452315</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8.108820903557172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.46622514340388</v>
+        <v>17.06308150411971</v>
       </c>
       <c r="C12">
-        <v>23.5778263921907</v>
+        <v>10.78867206815156</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.07606588449924</v>
+        <v>20.91419996773435</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>15.32027199626545</v>
+        <v>23.51711397367656</v>
       </c>
       <c r="H12">
-        <v>4.814585761227789</v>
+        <v>4.620935459744882</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.608541100559684</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.175891912591281</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.48576295650228</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.31771112594683</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.277888304693654</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.38106017699169</v>
+        <v>17.07814944507307</v>
       </c>
       <c r="C13">
-        <v>23.51966036155284</v>
+        <v>10.38569343103373</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.95303024219275</v>
+        <v>14.77378277694592</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>15.25473935769968</v>
+        <v>20.03791860772027</v>
       </c>
       <c r="H13">
-        <v>4.820144948701808</v>
+        <v>5.792318567609196</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.558988877752522</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.611588076403111</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.63348324951562</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.18495930141691</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.24143032468224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.10193643014898</v>
+        <v>16.97677427707781</v>
       </c>
       <c r="C14">
-        <v>23.32908491176241</v>
+        <v>10.04635167388652</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.55061816010367</v>
+        <v>10.38214303510918</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>15.04178457139475</v>
+        <v>17.82497869122687</v>
       </c>
       <c r="H14">
-        <v>4.838790278099171</v>
+        <v>6.673734106450495</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.507185274165799</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.287114206763373</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.21001854288461</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.00071946300462</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>8.122709314901714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.92990085776108</v>
+        <v>16.89643442771405</v>
       </c>
       <c r="C15">
-        <v>23.21167262846863</v>
+        <v>9.940755933810955</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.30322168481457</v>
+        <v>9.284445453997698</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>14.91193304827879</v>
+        <v>17.32709596036767</v>
       </c>
       <c r="H15">
-        <v>4.850599619336272</v>
+        <v>6.875833308611434</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.52458251618526</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.223849630523853</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.14442200775873</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.91252210221714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.050124912157857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.92764100700639</v>
+        <v>16.37021406621626</v>
       </c>
       <c r="C16">
-        <v>22.52840041669083</v>
+        <v>9.657150362114134</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.87112845304499</v>
+        <v>9.167812363537649</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>14.1770495760337</v>
+        <v>17.7042577164457</v>
       </c>
       <c r="H16">
-        <v>4.923921702344044</v>
+        <v>6.602289132967118</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.639905274329229</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.354923835451343</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.39025265659929</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.48080726320685</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.636269175111958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.29807336065921</v>
+        <v>16.01295360224514</v>
       </c>
       <c r="C17">
-        <v>22.09991386628917</v>
+        <v>9.624988429524119</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.97929427256398</v>
+        <v>11.53003017323044</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>13.73473897991938</v>
+        <v>19.08925766186524</v>
       </c>
       <c r="H17">
-        <v>4.973620412253476</v>
+        <v>5.872338584126477</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.700767766414485</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.614491017998789</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.77239256990944</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.2448142226412</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.475802184710237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.93052311015368</v>
+        <v>15.77457449085066</v>
       </c>
       <c r="C18">
-        <v>21.85003063478636</v>
+        <v>9.797421802189177</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.46127043125031</v>
+        <v>16.38991346769834</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>13.48358721500742</v>
+        <v>21.78128005181843</v>
       </c>
       <c r="H18">
-        <v>5.003817757433262</v>
+        <v>4.727335543237674</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.705160582404154</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.069501273604216</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.44958349636385</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.15602484331949</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.465846940230887</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.80513972749757</v>
+        <v>15.64651607463879</v>
       </c>
       <c r="C19">
-        <v>21.76483537691591</v>
+        <v>10.16892294146424</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.28499028614325</v>
+        <v>22.84826598680622</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>13.39912366459599</v>
+        <v>25.38390450273457</v>
       </c>
       <c r="H19">
-        <v>5.01430787423785</v>
+        <v>3.549430615575484</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.676973945241961</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.679630342615257</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.41711007051429</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.20599314732447</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.463298977631891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.36565418330036</v>
+        <v>15.85611920393545</v>
       </c>
       <c r="C20">
-        <v>22.14588184397484</v>
+        <v>10.98814746762967</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.07475175977699</v>
+        <v>33.07933326879746</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>13.78149003116474</v>
+        <v>31.40988565443852</v>
       </c>
       <c r="H20">
-        <v>4.96816041033501</v>
+        <v>3.026332551066569</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.520287831003436</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.71917098562425</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.15693557813172</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.62578266033799</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.478040391060496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.18414342153279</v>
+        <v>16.78853802109386</v>
       </c>
       <c r="C21">
-        <v>23.38520306112571</v>
+        <v>11.68965717526392</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.66900433715566</v>
+        <v>35.87396392210932</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>15.10421216093668</v>
+        <v>32.81486766436299</v>
       </c>
       <c r="H21">
-        <v>4.833231967983167</v>
+        <v>3.361976251103978</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.722129931219997</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.8672823417161</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.34353235133943</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.4608565173412</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.1575523011616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.3249099429309</v>
+        <v>17.38089931590783</v>
       </c>
       <c r="C22">
-        <v>24.1647531315276</v>
+        <v>12.08039123617492</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.32338821788114</v>
+        <v>37.19008562438274</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>15.99537447388454</v>
+        <v>33.57829534207112</v>
       </c>
       <c r="H22">
-        <v>4.76210101901587</v>
+        <v>3.559617503072953</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.859947666760085</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.93999466016441</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.43079362873216</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.97310402499711</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.65156083543366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.72039064606768</v>
+        <v>17.07296509171008</v>
       </c>
       <c r="C23">
-        <v>23.75146679684153</v>
+        <v>11.84934597513194</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.44396655790947</v>
+        <v>36.4934666131883</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>15.51738474166113</v>
+        <v>33.29575782507192</v>
       </c>
       <c r="H23">
-        <v>4.798365173363869</v>
+        <v>3.455099188548664</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.782072723227198</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.92543784043122</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.43434613530553</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.69739625769252</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.387342314430104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.33511835442444</v>
+        <v>15.84460358856669</v>
       </c>
       <c r="C24">
-        <v>22.1251107503136</v>
+        <v>10.98433817847156</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.03161196948416</v>
+        <v>33.74313560081236</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>13.76034407598997</v>
+        <v>32.03057208133455</v>
       </c>
       <c r="H24">
-        <v>4.970623844764289</v>
+        <v>3.051282815646544</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.494881045390356</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.837533947486</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.37606777410072</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.61798264685679</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.477013275592942</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.55393889302199</v>
+        <v>14.4055952869646</v>
       </c>
       <c r="C25">
-        <v>20.23982455182938</v>
+        <v>9.990820982301917</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.15542450010582</v>
+        <v>30.53589867760842</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>11.99215606673762</v>
+        <v>30.68195067780531</v>
       </c>
       <c r="H25">
-        <v>5.216899824191049</v>
+        <v>2.599764961977327</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.827001527917142</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.75711611708245</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.33462093581733</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.36367307798595</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.48684975074509</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.26409174394128</v>
+        <v>13.2457226064616</v>
       </c>
       <c r="C2">
-        <v>9.135315883727943</v>
+        <v>9.488389479239563</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>27.96525863607839</v>
+        <v>28.02796445645092</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>30.04135805413719</v>
+        <v>26.86429632492132</v>
       </c>
       <c r="H2">
-        <v>2.254236988512497</v>
+        <v>2.307346520687944</v>
       </c>
       <c r="I2">
-        <v>3.05518334151926</v>
+        <v>2.898000985200555</v>
       </c>
       <c r="J2">
-        <v>10.77079711866312</v>
+        <v>10.47551684809799</v>
       </c>
       <c r="K2">
-        <v>16.44595107036059</v>
+        <v>15.20853855451167</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.63968365236985</v>
       </c>
       <c r="M2">
-        <v>12.35022056573161</v>
+        <v>9.866685885896016</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.47830974899642</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.41887638347486</v>
+        <v>12.431537586329</v>
       </c>
       <c r="C3">
-        <v>8.560003844792023</v>
+        <v>8.829290536609923</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.08802806395004</v>
+        <v>26.16283697648091</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>29.42788875093269</v>
+        <v>26.62062629456558</v>
       </c>
       <c r="H3">
-        <v>2.009211704800222</v>
+        <v>2.072812148397177</v>
       </c>
       <c r="I3">
-        <v>3.23342056825589</v>
+        <v>3.05048895847397</v>
       </c>
       <c r="J3">
-        <v>10.75066359220275</v>
+        <v>10.47099330061843</v>
       </c>
       <c r="K3">
-        <v>16.45743411496541</v>
+        <v>15.32845614460262</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.8015316998307</v>
       </c>
       <c r="M3">
-        <v>11.62191166190678</v>
+        <v>9.90752817555582</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.74385779783664</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.86874010986001</v>
+        <v>11.90203516214135</v>
       </c>
       <c r="C4">
-        <v>8.191560338779169</v>
+        <v>8.405484842811013</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.86866784967915</v>
+        <v>24.95113398580984</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>29.04979544857375</v>
+        <v>26.47584076101507</v>
       </c>
       <c r="H4">
-        <v>1.853696831735721</v>
+        <v>1.923864492573694</v>
       </c>
       <c r="I4">
-        <v>3.346978871999894</v>
+        <v>3.148029834679843</v>
       </c>
       <c r="J4">
-        <v>10.73989241963607</v>
+        <v>10.46779602205374</v>
       </c>
       <c r="K4">
-        <v>16.46591205019126</v>
+        <v>15.40252485881406</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.90055636699074</v>
       </c>
       <c r="M4">
-        <v>11.15141352502945</v>
+        <v>9.948827951588891</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.26938283679964</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.63465164667264</v>
+        <v>11.67702348468631</v>
       </c>
       <c r="C5">
-        <v>8.046029912444819</v>
+        <v>8.235727298016862</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.35465733283083</v>
+        <v>24.44033855838104</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>28.85852043071302</v>
+        <v>26.38644367839595</v>
       </c>
       <c r="H5">
-        <v>1.788814976911959</v>
+        <v>1.861717737965955</v>
       </c>
       <c r="I5">
-        <v>3.397131062081613</v>
+        <v>3.192058775226184</v>
       </c>
       <c r="J5">
-        <v>10.72927735890649</v>
+        <v>10.4608233435726</v>
       </c>
       <c r="K5">
-        <v>16.45632944179415</v>
+        <v>15.42204264712907</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.93108629578084</v>
       </c>
       <c r="M5">
-        <v>10.95530715181173</v>
+        <v>9.963250756571707</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.07144381718724</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.59278800819018</v>
+        <v>11.63699480702287</v>
       </c>
       <c r="C6">
-        <v>8.031946130428636</v>
+        <v>8.216735669079538</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.26798988248061</v>
+        <v>24.35423535794513</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>28.78163804824988</v>
+        <v>26.33324486777158</v>
       </c>
       <c r="H6">
-        <v>1.777706690751215</v>
+        <v>1.851095898162242</v>
       </c>
       <c r="I6">
-        <v>3.409142596334774</v>
+        <v>3.203660582290006</v>
       </c>
       <c r="J6">
-        <v>10.71947366588135</v>
+        <v>10.45287669066053</v>
       </c>
       <c r="K6">
-        <v>16.43845552529976</v>
+        <v>15.41218144187206</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.92428256925397</v>
       </c>
       <c r="M6">
-        <v>10.92415606277271</v>
+        <v>9.958062342950276</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.03977216101173</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.85889221344096</v>
+        <v>11.89505889703829</v>
       </c>
       <c r="C7">
-        <v>8.21713152858343</v>
+        <v>8.416766834071183</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24.86100974332241</v>
+        <v>24.94301423867915</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>28.92486272956188</v>
+        <v>26.40795808003884</v>
       </c>
       <c r="H7">
-        <v>1.852139765168394</v>
+        <v>1.921943712770318</v>
       </c>
       <c r="I7">
-        <v>3.357252707367886</v>
+        <v>3.160567608954865</v>
       </c>
       <c r="J7">
-        <v>10.71778082813741</v>
+        <v>10.40503227298704</v>
       </c>
       <c r="K7">
-        <v>16.42130199118042</v>
+        <v>15.35005703355456</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.85418785597399</v>
       </c>
       <c r="M7">
-        <v>11.15351096975328</v>
+        <v>9.916301263463311</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.26826136866212</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.97089668117062</v>
+        <v>12.96993558172492</v>
       </c>
       <c r="C8">
-        <v>8.973825312118688</v>
+        <v>9.25999272681142</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>27.33078069231085</v>
+        <v>27.39595312750794</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>29.67261256832166</v>
+        <v>26.76986253844282</v>
       </c>
       <c r="H8">
-        <v>2.169926861984737</v>
+        <v>2.225249408621929</v>
       </c>
       <c r="I8">
-        <v>3.12813469389115</v>
+        <v>2.96646682349778</v>
       </c>
       <c r="J8">
-        <v>10.73475248098621</v>
+        <v>10.30661416231552</v>
       </c>
       <c r="K8">
-        <v>16.39112246981328</v>
+        <v>15.14800022836357</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.61137542787753</v>
       </c>
       <c r="M8">
-        <v>12.10980842310354</v>
+        <v>9.806647833653912</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.22705420892683</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.91555607483106</v>
+        <v>14.84494685544191</v>
       </c>
       <c r="C9">
-        <v>10.29319953359829</v>
+        <v>10.7652071954101</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>31.65008026793691</v>
+        <v>31.68527261724521</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>31.33635406751222</v>
+        <v>27.56692091094958</v>
       </c>
       <c r="H9">
-        <v>2.755174358072537</v>
+        <v>2.784567360700657</v>
       </c>
       <c r="I9">
-        <v>2.695030302280059</v>
+        <v>2.595290842845135</v>
       </c>
       <c r="J9">
-        <v>10.82060401530423</v>
+        <v>10.3003168288431</v>
       </c>
       <c r="K9">
-        <v>16.4240760949347</v>
+        <v>14.88043890639156</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.23750125015416</v>
       </c>
       <c r="M9">
-        <v>13.79112900605671</v>
+        <v>9.806610792116349</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.92159689884334</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.19905253350583</v>
+        <v>16.09723726488089</v>
       </c>
       <c r="C10">
-        <v>11.1427521764877</v>
+        <v>11.66042279074282</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>33.62879111167724</v>
+        <v>33.64017126597548</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>31.93365384886643</v>
+        <v>27.90719492156126</v>
       </c>
       <c r="H10">
-        <v>3.127066947865678</v>
+        <v>3.136422637590021</v>
       </c>
       <c r="I10">
-        <v>2.556895060868066</v>
+        <v>2.618265375991379</v>
       </c>
       <c r="J10">
-        <v>10.77867793286803</v>
+        <v>9.975049928059361</v>
       </c>
       <c r="K10">
-        <v>16.25454510227604</v>
+        <v>14.45502051632512</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.79900254946768</v>
       </c>
       <c r="M10">
-        <v>14.89762430940533</v>
+        <v>9.693013523600786</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.02079618006964</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.8018777779835</v>
+        <v>16.74349854427085</v>
       </c>
       <c r="C11">
-        <v>11.05825489652965</v>
+        <v>11.33446117667745</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.96855960385349</v>
+        <v>26.97298455552527</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>27.29652235099279</v>
+        <v>24.4386499923086</v>
       </c>
       <c r="H11">
-        <v>3.626876394394902</v>
+        <v>3.62984193112166</v>
       </c>
       <c r="I11">
-        <v>2.614399393662402</v>
+        <v>2.667112330969567</v>
       </c>
       <c r="J11">
-        <v>9.860133293045084</v>
+        <v>8.917169838909672</v>
       </c>
       <c r="K11">
-        <v>14.62299593956692</v>
+        <v>13.10014416852067</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.84312162453564</v>
       </c>
       <c r="M11">
-        <v>15.24763371452315</v>
+        <v>8.624261820359685</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.31994812904765</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.06308150411971</v>
+        <v>17.04102829254065</v>
       </c>
       <c r="C12">
-        <v>10.78867206815156</v>
+        <v>10.88645391241994</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.91419996773435</v>
+        <v>20.91830341351901</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>23.51711397367656</v>
+        <v>21.48886468101299</v>
       </c>
       <c r="H12">
-        <v>4.620935459744882</v>
+        <v>4.622915253256987</v>
       </c>
       <c r="I12">
-        <v>2.608541100559684</v>
+        <v>2.660945352381902</v>
       </c>
       <c r="J12">
-        <v>9.175891912591281</v>
+        <v>8.403307611791123</v>
       </c>
       <c r="K12">
-        <v>13.48576295650228</v>
+        <v>12.30363089472562</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.34098348080184</v>
       </c>
       <c r="M12">
-        <v>15.31771112594683</v>
+        <v>7.916112117532735</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.3552297530387</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.07814944507307</v>
+        <v>17.08656196787778</v>
       </c>
       <c r="C13">
-        <v>10.38569343103373</v>
+        <v>10.35562114071111</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.77378277694592</v>
+        <v>14.78439770869457</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>20.03791860772027</v>
+        <v>18.56331001844599</v>
       </c>
       <c r="H13">
-        <v>5.792318567609196</v>
+        <v>5.795811551337465</v>
       </c>
       <c r="I13">
-        <v>2.558988877752522</v>
+        <v>2.620076593292736</v>
       </c>
       <c r="J13">
-        <v>8.611588076403111</v>
+        <v>8.193695503751568</v>
       </c>
       <c r="K13">
-        <v>12.63348324951562</v>
+        <v>11.84535511039319</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.08110294086289</v>
       </c>
       <c r="M13">
-        <v>15.18495930141691</v>
+        <v>7.448797951963823</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.20122892907689</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.97677427707781</v>
+        <v>17.00434172194786</v>
       </c>
       <c r="C14">
-        <v>10.04635167388652</v>
+        <v>9.946045209778331</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.38214303510918</v>
+        <v>10.40273869802364</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>17.82497869122687</v>
+        <v>16.6111165383886</v>
       </c>
       <c r="H14">
-        <v>6.673734106450495</v>
+        <v>6.678558763761224</v>
       </c>
       <c r="I14">
-        <v>2.507185274165799</v>
+        <v>2.57841071889442</v>
       </c>
       <c r="J14">
-        <v>8.287114206763373</v>
+        <v>8.134041887729236</v>
       </c>
       <c r="K14">
-        <v>12.21001854288461</v>
+        <v>11.67501502143941</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.991730811838147</v>
       </c>
       <c r="M14">
-        <v>15.00071946300462</v>
+        <v>7.247599154177921</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.00747444609649</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.89643442771405</v>
+        <v>16.92805809240306</v>
       </c>
       <c r="C15">
-        <v>9.940755933810955</v>
+        <v>9.830916922945582</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.284445453997698</v>
+        <v>9.310293447828373</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>17.32709596036767</v>
+        <v>16.14442058913813</v>
       </c>
       <c r="H15">
-        <v>6.875833308611434</v>
+        <v>6.881293315104594</v>
       </c>
       <c r="I15">
-        <v>2.52458251618526</v>
+        <v>2.562165412824976</v>
       </c>
       <c r="J15">
-        <v>8.223849630523853</v>
+        <v>8.142466863925028</v>
       </c>
       <c r="K15">
-        <v>12.14442200775873</v>
+        <v>11.66975753435353</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.988145559709652</v>
       </c>
       <c r="M15">
-        <v>14.91252210221714</v>
+        <v>7.23113546085011</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.91937887758252</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.37021406621626</v>
+        <v>16.39612840079669</v>
       </c>
       <c r="C16">
-        <v>9.657150362114134</v>
+        <v>9.618051651771138</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.167812363537649</v>
+        <v>9.211795787290015</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>17.7042577164457</v>
+        <v>16.31745434188949</v>
       </c>
       <c r="H16">
-        <v>6.602289132967118</v>
+        <v>6.611440193342585</v>
       </c>
       <c r="I16">
-        <v>2.639905274329229</v>
+        <v>2.558817885470676</v>
       </c>
       <c r="J16">
-        <v>8.354923835451343</v>
+        <v>8.393712814925316</v>
       </c>
       <c r="K16">
-        <v>12.39025265659929</v>
+        <v>11.95448008998187</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.13081272376974</v>
       </c>
       <c r="M16">
-        <v>14.48080726320685</v>
+        <v>7.48016710306598</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.51089004593712</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.01295360224514</v>
+        <v>16.02657238817703</v>
       </c>
       <c r="C17">
-        <v>9.624988429524119</v>
+        <v>9.667782362161162</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.53003017323044</v>
+        <v>11.57658111596147</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>19.08925766186524</v>
+        <v>17.42811448873061</v>
       </c>
       <c r="H17">
-        <v>5.872338584126477</v>
+        <v>5.884409380076209</v>
       </c>
       <c r="I17">
-        <v>2.700767766414485</v>
+        <v>2.609315876065537</v>
       </c>
       <c r="J17">
-        <v>8.614491017998789</v>
+        <v>8.665628572881403</v>
       </c>
       <c r="K17">
-        <v>12.77239256990944</v>
+        <v>12.27194963440285</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.32053974029856</v>
       </c>
       <c r="M17">
-        <v>14.2448142226412</v>
+        <v>7.756857316691186</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.29527897093394</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.77457449085066</v>
+        <v>15.76438536156831</v>
       </c>
       <c r="C18">
-        <v>9.797421802189177</v>
+        <v>9.962657249786862</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.38991346769834</v>
+        <v>16.43162892481709</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>21.78128005181843</v>
+        <v>19.60616707274803</v>
       </c>
       <c r="H18">
-        <v>4.727335543237674</v>
+        <v>4.743179719285616</v>
       </c>
       <c r="I18">
-        <v>2.705160582404154</v>
+        <v>2.609658709336805</v>
       </c>
       <c r="J18">
-        <v>9.069501273604216</v>
+        <v>9.046475754297282</v>
       </c>
       <c r="K18">
-        <v>13.44958349636385</v>
+        <v>12.76248891721402</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.6524214641008</v>
       </c>
       <c r="M18">
-        <v>14.15602484331949</v>
+        <v>8.171244336417768</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.23096622954792</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.64651607463879</v>
+        <v>15.60446804286133</v>
       </c>
       <c r="C19">
-        <v>10.16892294146424</v>
+        <v>10.48318270469471</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.84826598680622</v>
+        <v>22.8837062070313</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>25.38390450273457</v>
+        <v>22.49786808316637</v>
       </c>
       <c r="H19">
-        <v>3.549430615575484</v>
+        <v>3.570182291654496</v>
       </c>
       <c r="I19">
-        <v>2.676973945241961</v>
+        <v>2.587989889967607</v>
       </c>
       <c r="J19">
-        <v>9.679630342615257</v>
+        <v>9.514573154376443</v>
       </c>
       <c r="K19">
-        <v>14.41711007051429</v>
+        <v>13.42608959788543</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.12237577968894</v>
       </c>
       <c r="M19">
-        <v>14.20599314732447</v>
+        <v>8.723724262943684</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.30684062317034</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85611920393545</v>
+        <v>15.75889591925496</v>
       </c>
       <c r="C20">
-        <v>10.98814746762967</v>
+        <v>11.51971537885093</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>33.07933326879746</v>
+        <v>33.09898664929673</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>31.40988565443852</v>
+        <v>27.36815804716084</v>
       </c>
       <c r="H20">
-        <v>3.026332551066569</v>
+        <v>3.042566637005057</v>
       </c>
       <c r="I20">
-        <v>2.520287831003436</v>
+        <v>2.57339071091851</v>
       </c>
       <c r="J20">
-        <v>10.71917098562425</v>
+        <v>10.1507465594416</v>
       </c>
       <c r="K20">
-        <v>16.15693557813172</v>
+        <v>14.51551041947075</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.87645406048283</v>
       </c>
       <c r="M20">
-        <v>14.62578266033799</v>
+        <v>9.676923838051925</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.75675887099127</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.78853802109386</v>
+        <v>16.68933528551891</v>
       </c>
       <c r="C21">
-        <v>11.68965717526392</v>
+        <v>12.12097870077869</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>35.87396392210932</v>
+        <v>35.86541243567141</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>32.81486766436299</v>
+        <v>29.12511775311979</v>
       </c>
       <c r="H21">
-        <v>3.361976251103978</v>
+        <v>3.354993710111204</v>
       </c>
       <c r="I21">
-        <v>2.722129931219997</v>
+        <v>2.755467366727759</v>
       </c>
       <c r="J21">
-        <v>10.8672823417161</v>
+        <v>9.323678170096656</v>
       </c>
       <c r="K21">
-        <v>16.34353235133943</v>
+        <v>14.11122733751214</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.50308082723126</v>
       </c>
       <c r="M21">
-        <v>15.4608565173412</v>
+        <v>9.533825337253701</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.5537686426437</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.38089931590783</v>
+        <v>17.28426778158047</v>
       </c>
       <c r="C22">
-        <v>12.08039123617492</v>
+        <v>12.43081482737982</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>37.19008562438274</v>
+        <v>37.16329566410914</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>33.57829534207112</v>
+        <v>30.23606788019702</v>
       </c>
       <c r="H22">
-        <v>3.559617503072953</v>
+        <v>3.537923976858955</v>
       </c>
       <c r="I22">
-        <v>2.859947666760085</v>
+        <v>2.863463962850315</v>
       </c>
       <c r="J22">
-        <v>10.93999466016441</v>
+        <v>8.789755413194959</v>
       </c>
       <c r="K22">
-        <v>16.43079362873216</v>
+        <v>13.80446320773971</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.24032387365092</v>
       </c>
       <c r="M22">
-        <v>15.97310402499711</v>
+        <v>9.409491827419252</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.03862113654724</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.07296509171008</v>
+        <v>16.97025112578883</v>
       </c>
       <c r="C23">
-        <v>11.84934597513194</v>
+        <v>12.26726589262195</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>36.4934666131883</v>
+        <v>36.47728180727667</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>33.29575782507192</v>
+        <v>29.64841139465368</v>
       </c>
       <c r="H23">
-        <v>3.455099188548664</v>
+        <v>3.441938513617573</v>
       </c>
       <c r="I23">
-        <v>2.782072723227198</v>
+        <v>2.801043433217088</v>
       </c>
       <c r="J23">
-        <v>10.92543784043122</v>
+        <v>9.166764448130673</v>
       </c>
       <c r="K23">
-        <v>16.43434613530553</v>
+        <v>14.04535939563615</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.42894628753491</v>
       </c>
       <c r="M23">
-        <v>15.69739625769252</v>
+        <v>9.543679056859613</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.78295747958492</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84460358856669</v>
+        <v>15.74274593794946</v>
       </c>
       <c r="C24">
-        <v>10.98433817847156</v>
+        <v>11.53559085065337</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>33.74313560081236</v>
+        <v>33.76222487637246</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>32.03057208133455</v>
+        <v>27.87596060083969</v>
       </c>
       <c r="H24">
-        <v>3.051282815646544</v>
+        <v>3.067052625525669</v>
       </c>
       <c r="I24">
-        <v>2.494881045390356</v>
+        <v>2.565875453234986</v>
       </c>
       <c r="J24">
-        <v>10.837533947486</v>
+        <v>10.247845383123</v>
       </c>
       <c r="K24">
-        <v>16.37606777410072</v>
+        <v>14.67756619686818</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.99255314485544</v>
       </c>
       <c r="M24">
-        <v>14.61798264685679</v>
+        <v>9.808514479201301</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.75247435788105</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.4055952869646</v>
+        <v>14.35156340463949</v>
       </c>
       <c r="C25">
-        <v>9.990820982301917</v>
+        <v>10.42612764341857</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>30.53589867760842</v>
+        <v>30.58004866925936</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>30.68195067780531</v>
+        <v>27.11591585656707</v>
       </c>
       <c r="H25">
-        <v>2.599764961977327</v>
+        <v>2.636841790864407</v>
       </c>
       <c r="I25">
-        <v>2.827001527917142</v>
+        <v>2.712832148689235</v>
       </c>
       <c r="J25">
-        <v>10.75711611708245</v>
+        <v>10.33183704616714</v>
       </c>
       <c r="K25">
-        <v>16.33462093581733</v>
+        <v>14.91439934150903</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.31058433372321</v>
       </c>
       <c r="M25">
-        <v>13.36367307798595</v>
+        <v>9.762670847722257</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.49318749993834</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
